--- a/functions/schema/LC_CashFlow Direct_all_accounts.xlsx
+++ b/functions/schema/LC_CashFlow Direct_all_accounts.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,9 @@
       <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -464,6 +467,11 @@
           <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -484,6 +492,11 @@
           <t>tiền thu phí và hoa hồng</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -504,6 +517,11 @@
           <t>tiê n thu từ các khoản nợ phí và hoa hồng</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -524,6 +542,11 @@
           <t>tiê n thu từ các khoản thu được giảm chi</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -544,6 +567,11 @@
           <t>tiê n thu từ các hoạt động kinh doanh khác</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -564,6 +592,11 @@
           <t>trả tiền bồi thường bảo hiểm</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +617,11 @@
           <t>trả tiền hoa hồng và các khoản nợ khác của kinh doanh bh</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -604,6 +642,11 @@
           <t>trả tiền cho người bán người cung cấp dịch vụ</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -624,6 +667,11 @@
           <t>trả tiền cho cán bộ công nhân viên</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -644,6 +692,11 @@
           <t>trả tiền nộp thuế và các khoản nợ nhà nước</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -664,6 +717,11 @@
           <t>trả tiền cho các khoản nợ khác</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -684,6 +742,11 @@
           <t>tiền tạm ứng cho cbcnv và ứng trước cho người bán</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -704,6 +767,11 @@
           <t>tiền thu khác từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -724,6 +792,11 @@
           <t>tiền chi khác từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -744,6 +817,11 @@
           <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -764,6 +842,11 @@
           <t>lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -784,6 +867,11 @@
           <t>tiền thu từ các khoản đầu tư vào đơn vị khác</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -804,6 +892,11 @@
           <t>tiền thu từ lãi các khoản đầu tư khác</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -824,6 +917,11 @@
           <t>tiền thu do bán tài sản cố định</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -844,6 +942,11 @@
           <t>tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -864,6 +967,11 @@
           <t>tiền mua tài sản cố định</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -884,6 +992,11 @@
           <t>tiền thu khác từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -904,6 +1017,11 @@
           <t>tiền chi khác từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -924,6 +1042,11 @@
           <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -944,6 +1067,11 @@
           <t>lưu chuyển tiền từ hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -964,6 +1092,11 @@
           <t>tiền thu từ phát hành cổ phiếu nhận vốn góp của chủ sở hữu tiền thu do các chủ sở hữu góp vốn</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -984,6 +1117,11 @@
           <t>tiền chi trả vốn góp cho các chủ sở hữu mua lại cổ phiếu của doanh nghiệp đã phát hành</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1004,6 +1142,11 @@
           <t>tiền vay ngắn hạn dài hạn nhận được tiền thu do di vay</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1024,6 +1167,11 @@
           <t>tiền thu từ lãi tiền gửi</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1044,6 +1192,11 @@
           <t>tiền chi trả nợ gốc vay</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1064,6 +1217,11 @@
           <t>tiền chi trả nợ thuê tài chính</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1084,6 +1242,11 @@
           <t>cổ tức lợi nhuận đã trả cho chủ sở hữu tiền lãi đã trả cho các nhà đầu tư vào doanh nghiệp</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1104,6 +1267,11 @@
           <t>tiền thu khác từ hoạt dộng tài chính</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1124,6 +1292,11 @@
           <t>tiền chi khác từ hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1144,6 +1317,11 @@
           <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1164,6 +1342,11 @@
           <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1184,6 +1367,11 @@
           <t>tiền và tương đương tiền đầu kỳ</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền đầu kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1204,6 +1392,11 @@
           <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1224,6 +1417,11 @@
           <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1244,6 +1442,11 @@
           <t>thu nhập lãi và các khoản thu nhập tương tự nhận được</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1264,6 +1467,11 @@
           <t>chi phí lãi và các chi phí tương tự đã trả</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1284,6 +1492,11 @@
           <t>thu nhập từ hoạt động dịch vụ nhận được</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1304,6 +1517,11 @@
           <t>4 chênh lệch số tiền thực thu thực chi từ hoạt động kinh doanh ngoại tệ vàng bạc chứng khoán</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1324,6 +1542,11 @@
           <t>thu nhập khác</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1344,6 +1567,11 @@
           <t>tiền thu các khoản nợ đã được xử lý xóa bù đắp bằng nguồn rủi ro</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1364,6 +1592,11 @@
           <t>tiền chi trả cho nhân viên và hoạt động quản lý công vụ</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1384,6 +1617,11 @@
           <t>tiền thuế thu nhập thực nộp trong kỳ</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1404,6 +1642,11 @@
           <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1424,6 +1667,11 @@
           <t>những thay đổi về tài sản hoạt động</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>những thay đổi về tài sản hoạt động</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1444,6 +1692,11 @@
           <t>tăng giảm các khoản tiền vàng gửi và cho vay các tctd khác</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1464,6 +1717,11 @@
           <t>tăng giảm các khoản về kinh doanh chứng khoán</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1484,6 +1742,11 @@
           <t>tăng giảm các công cụ tài chính phái sinh và các công cụ tài chính khác</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1504,6 +1767,11 @@
           <t>tăng giảm các khoản cho vay khách hàng</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1524,6 +1792,11 @@
           <t>giảm nguồn dự phòng để bù đắp tổn thất các khoản</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1544,6 +1817,11 @@
           <t>tăng giảm khác về tài sản hoạt động</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1564,6 +1842,11 @@
           <t>những thay đổi về công nợ hoạt động</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>những thay đổi về công nợ hoạt động</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1584,6 +1867,11 @@
           <t>tăng giảm các khoản nợ chính phủ và nhnn</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1604,6 +1892,11 @@
           <t>tăng giảm các khoản tiền gửi tiền vay các tổ chức tín dụng</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1624,6 +1917,11 @@
           <t>tăng giảm tiền gửi của khách hàng bao gồm cả kho bạc nhà nước</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1644,6 +1942,11 @@
           <t>tăng giảm phát hành giấy tờ có giá ngoại trừ giấy tờ có giá phát hành được tình vào hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1664,6 +1967,11 @@
           <t>tăng giảm vốn tài trợ ủy thác đầu tư cho vay mà tctd chịu rủi ro</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1684,6 +1992,11 @@
           <t>tăng giảm các công cụ tài chính phái sinh và các khoản nợ tài chính khác</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1704,6 +2017,11 @@
           <t>tăng giảm khác về công nợ hoạt động</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1724,6 +2042,11 @@
           <t>chi từ các quỹ của tctd</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1744,6 +2067,11 @@
           <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>iv lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1764,6 +2092,11 @@
           <t>mua sắm tài sản cố định</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1784,6 +2117,11 @@
           <t>tiền thu từ thanh lý nhượng bán tscđ</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1804,6 +2142,11 @@
           <t>tiền chi từ thanh lý nhượng bán tscđ</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1824,6 +2167,11 @@
           <t>mua sắm bất động sản đầu tư</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1844,6 +2192,11 @@
           <t>tiền thu từ bán thanh lý bất động sản đầu tư</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1864,6 +2217,11 @@
           <t>tiền chi ra do bán thanh lý bất động sản đầu tư</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1884,6 +2242,11 @@
           <t>tiền chi đầu tư góp vốn vào các đơn vị khác mua công ty con góp vốn liên doanh liên kết đầu tư dài hạn khác</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1904,6 +2267,11 @@
           <t>tiền thu đầu tư góp vốn vào các đơn vị khác bán thanh lý công ty con góp vốn liên doanh liên kết đầu tư dài hạn khác</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1924,6 +2292,11 @@
           <t>tiền thu cổ tức và lợi nhuận được chia từ các khoản đầu tư góp vốn dài hạn</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1944,6 +2317,11 @@
           <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>iv lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1964,6 +2342,11 @@
           <t>tăng v ốn cổ phần từ góp vốn và hoặc phát hành cổ phiếu</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1984,6 +2367,11 @@
           <t>tiền thu từ phát hành giấy tờ có giá dài hạn có đủ điều kiện tính vào vốn tự có và các khoản vốn vay dài hạn khác</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2004,6 +2392,11 @@
           <t>tiền chi thanh toán giấy tờ có giá dài hạn có đủ điều kiện tính vào vốn tự có và các khoản vốn vay dài hạn khác</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2024,6 +2417,11 @@
           <t>cổ tức trả cho cổ đông lợi nhuận đã chia</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2044,6 +2442,11 @@
           <t>tiền chi ra mua cổ phiếu quỹ</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2064,6 +2467,11 @@
           <t>tiền thu được do bán cổ phiếu quỹ</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2084,6 +2492,11 @@
           <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>iv lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2104,6 +2517,11 @@
           <t>iv lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2124,6 +2542,11 @@
           <t>v tiền và các khoản tương đương tiền tại thời điểm đầu kỳ</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2144,6 +2567,11 @@
           <t>vi điều chỉnh ảnh hưởng của thay đổi tỷ giá</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2164,6 +2592,11 @@
           <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2184,6 +2617,11 @@
           <t>tiê n thu tư ba n ha ng cung câ p di ch vu va doanh thu kha c</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2204,6 +2642,11 @@
           <t>tiê n chi tra cho ngươ i cung câ p ha ng hoa va di ch vu</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2224,6 +2667,11 @@
           <t>tiê n chi tra cho ngươ i lao đô ng</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2244,6 +2692,11 @@
           <t>tiê n chi tra la i vay</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2264,6 +2717,11 @@
           <t>tiê n chi nô p thuê thu nhâ p doanh nghiê p</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2284,6 +2742,11 @@
           <t>tiê n thu kha c tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2304,6 +2767,11 @@
           <t>tiê n chi kha c cho hoa t đô ng kinh doanh</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2324,6 +2792,11 @@
           <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2344,6 +2817,11 @@
           <t>tiê n chi đê mua să m xây dư ng tscđ va ca c ta i sa n da i ha n kha c</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2364,6 +2842,11 @@
           <t>tiê n thu tư thanh ly nhươ ng ba n tscđ va ca c ta i sa n da i ha n kha c</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2384,6 +2867,11 @@
           <t>tiền chi cho vay mua các công cụ nợ của đơn vị khác</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2404,6 +2892,11 @@
           <t>tiê n thu hô i cho vay ba n la i ca c công cu nơ cu a đơn vi kha c</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2424,6 +2917,11 @@
           <t>tiê n chi đâ u tư go p vô n va o đơn vi kha c</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2444,6 +2942,11 @@
           <t>tiê n thu hô i đâ u tư go p vô n va o đơn vi kha c</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2464,6 +2967,11 @@
           <t>tiê n thu la i cho vay cô tư c va lơ i nhuâ n đươ c chia</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2471,7 +2979,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>other payments for investing activities</t>
+          <t>other receipts from investing activities</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2481,7 +2989,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>tiền chi khác cho hoạt động đầu tư</t>
+          <t>tiền thu khác từ hoạt động đầu tư</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -2491,15 +3004,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>other payments for investing activities</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>net cash flows from investing activities</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>net cash flows during the period</t>
-        </is>
-      </c>
       <c r="D104" t="inlineStr">
+        <is>
+          <t>tiền chi khác cho hoạt động đầu tư</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
@@ -2511,17 +3029,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>receipts from equity issue and owner s capital contribution</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>tiê n thu tư pha t ha nh cô phiê u nhâ n vô n go p cu a chu sơ hư u</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -2531,7 +3054,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>payment for share repurchases</t>
+          <t>receipts from equity issue and owner s capital contribution</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2541,7 +3064,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>tiê n chi tra vô n go p cho ca c chu sơ hư u mua la i cô phiê u cu a doanh nghiê p đa pha t ha nh</t>
+          <t>tiê n thu tư pha t ha nh cô phiê u nhâ n vô n go p cu a chu sơ hư u</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -2551,7 +3079,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>proceeds from borrowings</t>
+          <t>payment for share repurchases</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2561,7 +3089,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>tiền thu từ đi vay</t>
+          <t>tiê n chi tra vô n go p cho ca c chu sơ hư u mua la i cô phiê u cu a doanh nghiê p đa pha t ha nh</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -2571,7 +3104,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>principal repayments</t>
+          <t>proceeds from borrowings</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2581,7 +3114,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>tiê n chi tra nơ gô c vay</t>
+          <t>tiền thu từ đi vay</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -2591,7 +3129,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>repayment of financial leases</t>
+          <t>principal repayments</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2601,7 +3139,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>tiền trả nợ gốc thuê tài chính</t>
+          <t>tiê n chi tra nơ gô c vay</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -2611,7 +3154,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>dividends paid profits distributed to owners</t>
+          <t>repayment of financial leases</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2621,7 +3164,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>cô tư c lơ i nhuâ n đa tra cho chu sơ hư u</t>
+          <t>tiền trả nợ gốc thuê tài chính</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -2631,7 +3179,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>other receipts from financing activities</t>
+          <t>dividends paid profits distributed to owners</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2641,7 +3189,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>tiền thu khác từ hoạt động tài chính</t>
+          <t>cô tư c lơ i nhuâ n đa tra cho chu sơ hư u</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -2651,7 +3204,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>other payments for financing activities</t>
+          <t>other receipts from financing activities</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2661,7 +3214,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>tiền chi khác cho hoạt động tài chính</t>
+          <t>tiền thu khác từ hoạt động tài chính</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -2671,15 +3229,20 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>other payments for financing activities</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>net cash flows from financing activities</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>net cash flows during the period</t>
-        </is>
-      </c>
       <c r="D113" t="inlineStr">
+        <is>
+          <t>tiền chi khác cho hoạt động tài chính</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
@@ -2691,15 +3254,20 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>net cash flows from financing activities</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>net cash flows during the period</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>cash and cash equivalents at end of the period</t>
-        </is>
-      </c>
       <c r="D114" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
@@ -2711,7 +3279,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at beginning of the period</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2721,7 +3289,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền đầu kỳ</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -2731,7 +3304,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>exchange difference due to re valuation of ending balances</t>
+          <t>cash and cash equivalents at beginning of the period</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2741,7 +3314,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+          <t>tiền và tương đương tiền đầu kỳ</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -2749,11 +3327,24 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>exchange difference due to re valuation of ending balances</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>cash and cash equivalents at end of the period</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n tư hoa t đô ng kinh doanh</t>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -2765,7 +3356,12 @@
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1 tiền thu từ hoạt động nghiệp vụ cung cấp dịch vụ và doanh thu khác</t>
+          <t>lưu chuyê n tiê n tư hoa t đô ng kinh doanh</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2777,7 +3373,12 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2 tiền chi trả cho hoạt động nghiệp vụ và người cung cấp hàng hóa dịch vụ</t>
+          <t>1 tiền thu từ hoạt động nghiệp vụ cung cấp dịch vụ và doanh thu khác</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2789,7 +3390,12 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>3 tiền chi trả cho người lao động</t>
+          <t>2 tiền chi trả cho hoạt động nghiệp vụ và người cung cấp hàng hóa dịch vụ</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2801,7 +3407,12 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4 tiền trả lãi vay</t>
+          <t>3 tiền chi trả cho người lao động</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2813,7 +3424,12 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>5 tiền nộp thuế và các khoản phải nộp nhà nước</t>
+          <t>4 tiền trả lãi vay</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2825,7 +3441,12 @@
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>6 nhận và trả tiền ký quỹ ký cược</t>
+          <t>5 tiền nộp thuế và các khoản phải nộp nhà nước</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2837,7 +3458,12 @@
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>7 tiền chi mua vật liệu ccdc</t>
+          <t>6 nhận và trả tiền ký quỹ ký cược</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2849,7 +3475,12 @@
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>8 tiền thu khác từ hoạt động kinh doanh</t>
+          <t>7 tiền chi mua vật liệu ccdc</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2861,7 +3492,12 @@
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>9 tiê n chi kha c cho hoa t đô ng kinh doanh</t>
+          <t>8 tiền thu khác từ hoạt động kinh doanh</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2873,6 +3509,11 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
+          <t>9 tiê n chi kha c cho hoa t đô ng kinh doanh</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
           <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
@@ -2885,7 +3526,12 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n tư hoa t đô ng đâ u tư</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n trong ky</t>
         </is>
       </c>
     </row>
@@ -2897,7 +3543,12 @@
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1 tiê n chi đê mua să m xây dư ng tscđ va ca c ta i sa n da i ha n kha c</t>
+          <t>lưu chuyê n tiê n tư hoa t đô ng đâ u tư</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -2909,7 +3560,12 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2 tiê n thu tư thanh ly nhươ ng ba n tscđ va ca c ta i sa n da i ha n kha c</t>
+          <t>1 tiê n chi đê mua să m xây dư ng tscđ va ca c ta i sa n da i ha n kha c</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -2921,7 +3577,12 @@
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>3 tiền chi mua các công cụ nợ của đơn vị khác</t>
+          <t>2 tiê n thu tư thanh ly nhươ ng ba n tscđ va ca c ta i sa n da i ha n kha c</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -2933,7 +3594,12 @@
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>4 thu từ thanh lý các khoản đầu tư công cụ nợ của đơn vị khác</t>
+          <t>3 tiền chi mua các công cụ nợ của đơn vị khác</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -2945,7 +3611,12 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>5 tiê n chi đâ u tư go p vô n va o đơn vi kha c</t>
+          <t>4 thu từ thanh lý các khoản đầu tư công cụ nợ của đơn vị khác</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -2957,7 +3628,12 @@
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>6 tiê n thu hô i đâ u tư go p vô n va o đơn vi kha c</t>
+          <t>5 tiê n chi đâ u tư go p vô n va o đơn vi kha c</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -2969,7 +3645,12 @@
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>7 tiền đầu tư chứng khoán</t>
+          <t>6 tiê n thu hô i đâ u tư go p vô n va o đơn vi kha c</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -2981,7 +3662,12 @@
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>8 tiền thu lãi trái phiếu lãi đầu tư khác</t>
+          <t>7 tiền đầu tư chứng khoán</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -2993,7 +3679,12 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>9 tiền thu cổ tức và lợi nhuận được chia</t>
+          <t>8 tiền thu lãi trái phiếu lãi đầu tư khác</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3696,12 @@
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>10 tiền thu khác từ hoạt động đầu tư</t>
+          <t>9 tiền thu cổ tức và lợi nhuận được chia</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3713,12 @@
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>11 tiền chi khác cho hoạt động đầu tư</t>
+          <t>10 tiền thu khác từ hoạt động đầu tư</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -3029,6 +3730,11 @@
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
+          <t>11 tiền chi khác cho hoạt động đầu tư</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
           <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
@@ -3041,7 +3747,12 @@
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n tư hoa t đô ng ta i chi nh</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n trong ky</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3764,12 @@
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1 tiê n thu tư pha t ha nh cô phiê u nhâ n vô n go p cu a chu sơ hư u</t>
+          <t>lưu chuyê n tiê n tư hoa t đô ng ta i chi nh</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3781,12 @@
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2 tiê n chi tra vô n go p cho ca c chu sơ hư u mua la i cô phiê u cu a doanh nghiê p đa pha t ha nh</t>
+          <t>1 tiê n thu tư pha t ha nh cô phiê u nhâ n vô n go p cu a chu sơ hư u</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3798,12 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>3 tiê n vay ngă n ha n da i ha n nhâ n đươ c</t>
+          <t>2 tiê n chi tra vô n go p cho ca c chu sơ hư u mua la i cô phiê u cu a doanh nghiê p đa pha t ha nh</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3815,12 @@
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>4 tiê n chi tra nơ gô c vay</t>
+          <t>3 tiê n vay ngă n ha n da i ha n nhâ n đươ c</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3832,12 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>5 tiê n chi tra nơ thuê ta i chi nh</t>
+          <t>4 tiê n chi tra nơ gô c vay</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3849,12 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>6 cô tư c lơ i nhuâ n đa tra cho chu sơ hư u</t>
+          <t>5 tiê n chi tra nơ thuê ta i chi nh</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3866,12 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>7 thu khác từ hoạt động tài chính</t>
+          <t>6 cô tư c lơ i nhuâ n đa tra cho chu sơ hư u</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3883,12 @@
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>8 chi khác từ hoạt động tài chính</t>
+          <t>7 thu khác từ hoạt động tài chính</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -3149,6 +3900,11 @@
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
+          <t>8 chi khác từ hoạt động tài chính</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
           <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
@@ -3161,6 +3917,11 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
           <t>lưu chuyê n tiê n thuâ n trong ky</t>
         </is>
       </c>
@@ -3173,7 +3934,12 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>tiê n va tương đương tiê n đâ u ky</t>
+          <t>lưu chuyê n tiê n thuâ n trong ky</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>tiê n va tương đương tiê n cuô i ky</t>
         </is>
       </c>
     </row>
@@ -3185,7 +3951,12 @@
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>a nh hươ ng cu a thay đô i ty gia hô i đoa i quy đô i ngoa i tê</t>
+          <t>tiê n va tương đương tiê n đâ u ky</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>tiê n va tương đương tiê n cuô i ky</t>
         </is>
       </c>
     </row>
@@ -3197,6 +3968,11 @@
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
+          <t>a nh hươ ng cu a thay đô i ty gia hô i đoa i quy đô i ngoa i tê</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
           <t>tiê n va tương đương tiê n cuô i ky</t>
         </is>
       </c>
@@ -3205,19 +3981,16 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>cash flow from securities trading activities</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>cash flow from securities trading activities</t>
-        </is>
-      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
+          <t>tiê n va tương đương tiê n cuô i ky</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>tiê n va tương đương tiê n cuô i ky</t>
         </is>
       </c>
     </row>
@@ -3227,17 +4000,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>payment for purchases financial assets</t>
+          <t>cash flow from securities trading activities</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>net cash flows from securities business</t>
+          <t>cash flow from securities trading activities</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>tiền đã chi mua các tài sản tài chính</t>
+          <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3247,7 +4025,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>receipts from sale of financial assets</t>
+          <t>payment for purchases financial assets</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3257,7 +4035,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>tiền đã thu từ bán các tài sản tài chính</t>
+          <t>tiền đã chi mua các tài sản tài chính</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3267,7 +4050,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>receipts from operating activities</t>
+          <t>receipts from sale of financial assets</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3277,7 +4060,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>tiền thu từ hoạt động kinh doanh</t>
+          <t>tiền đã thu từ bán các tài sản tài chính</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3287,7 +4075,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>cash paid to operating activities</t>
+          <t>receipts from operating activities</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3297,7 +4085,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>tiền chi hoạt động kinh doanh</t>
+          <t>tiền thu từ hoạt động kinh doanh</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3307,7 +4100,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>cash paid to settlement assistance fund</t>
+          <t>cash paid to operating activities</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3317,7 +4110,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>tiền chi nộp quỹ hỗ trợ thanh toán</t>
+          <t>tiền chi hoạt động kinh doanh</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3327,7 +4125,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>dividends received</t>
+          <t>cash paid to settlement assistance fund</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3337,7 +4135,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>cổ tức đã nhận</t>
+          <t>tiền chi nộp quỹ hỗ trợ thanh toán</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3347,7 +4150,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>interest received</t>
+          <t>dividends received</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3357,7 +4160,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>tiền lãi đã thu</t>
+          <t>cổ tức đã nhận</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3367,7 +4175,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>receipts from securities trading of customers</t>
+          <t>interest received</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3377,7 +4185,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>tiền thu giao dịch chứng khoán khách hàng</t>
+          <t>tiền lãi đã thu</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3387,7 +4200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>cash paid to securities trading of customers</t>
+          <t>receipts from securities trading of customers</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3397,7 +4210,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>tiền chi trả giao dịch chứng khoán khách hàng</t>
+          <t>tiền thu giao dịch chứng khoán khách hàng</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3407,7 +4225,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>receipts from securities issuing services</t>
+          <t>cash paid to securities trading of customers</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3417,7 +4235,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>tiền thu bán chứng khoán phát hành</t>
+          <t>tiền chi trả giao dịch chứng khoán khách hàng</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3427,7 +4250,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>cash paid securities issuers</t>
+          <t>receipts from securities issuing services</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3437,7 +4260,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>tiền chi trả tổ chức phát hành chứng khoán</t>
+          <t>tiền thu bán chứng khoán phát hành</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3447,7 +4275,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>cash paid to suppliers for goods and services</t>
+          <t>cash paid securities issuers</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3457,7 +4285,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>tiền chi trả cho người cung cấp hàng hóa và dịch vụ</t>
+          <t>tiền chi trả tổ chức phát hành chứng khoán</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3467,7 +4300,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>interest paid</t>
+          <t>cash paid to suppliers for goods and services</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3477,7 +4310,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>tiền chi trả lãi vay cho hoạt động của ctck</t>
+          <t>tiền chi trả cho người cung cấp hàng hóa và dịch vụ</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3487,7 +4325,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>payment organization providing services for activities of securities company</t>
+          <t>interest paid</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3497,7 +4335,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>tiền chi trả tổ chức cung cấp dịch vụ cho ctck</t>
+          <t>tiền chi trả lãi vay cho hoạt động của ctck</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3507,7 +4350,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>cash paid to employees</t>
+          <t>payment organization providing services for activities of securities company</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3517,7 +4360,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>tiền chi trả cho người lao động</t>
+          <t>tiền chi trả tổ chức cung cấp dịch vụ cho ctck</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3527,7 +4375,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>tax payments related to activities of securities company</t>
+          <t>cash paid to employees</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3537,7 +4385,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>tiền chi nộp thuế liên quan đến hoạt động ctck</t>
+          <t>tiền chi trả cho người lao động</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3547,7 +4400,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>payment of expenses for the purchase and sale of financial assets</t>
+          <t>tax payments related to activities of securities company</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3557,7 +4410,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>tiền chi thanh toán các chi phí cho hoạt động mua bán các tài sản tài chính chi phí giao dịch phí chuyển tiền</t>
+          <t>tiền chi nộp thuế liên quan đến hoạt động ctck</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3567,7 +4425,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>corporate income tax paid</t>
+          <t>payment of expenses for the purchase and sale of financial assets</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3577,7 +4435,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>tiền chi nộp thuế thu nhập doanh nghiệp</t>
+          <t>tiền chi thanh toán các chi phí cho hoạt động mua bán các tài sản tài chính chi phí giao dịch phí chuyển tiền</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3587,7 +4450,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>other receipts from operating activities</t>
+          <t>corporate income tax paid</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3597,7 +4460,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>tiền thu khác từ hoạt động kinh doanh</t>
+          <t>tiền chi nộp thuế thu nhập doanh nghiệp</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3607,7 +4475,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>other payments for operating activities</t>
+          <t>other receipts from operating activities</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3617,7 +4485,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>tiền chi khác cho hoạt động kinh doanh</t>
+          <t>tiền thu khác từ hoạt động kinh doanh</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -3625,29 +4498,39 @@
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>other payments for operating activities</t>
+        </is>
+      </c>
       <c r="C176" t="inlineStr">
         <is>
           <t>net cash flows from securities business</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>tiền chi khác cho hoạt động kinh doanh</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
         <is>
           <t>net cash flows from securities business</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>net cash flows during the period</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
         <is>
           <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
@@ -3659,17 +4542,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>cash flow from investing activities</t>
+          <t>net cash flows from securities business</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>cash flow from investing activities</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -3679,17 +4567,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>payment for fixed assets constructions and other long term assets</t>
+          <t>cash flow from investing activities</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>cash flow from investing activities</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>tiền chi để mua sắm xây dựng tscđ và các tài sản dài hạn khác</t>
+          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -3699,7 +4592,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>receipts from disposal of fixed assets and other long term assets</t>
+          <t>payment for fixed assets constructions and other long term assets</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3709,7 +4602,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>tiền thu từ thanh lý nhượng bán tscđ và các tài sản dài hạn khác</t>
+          <t>tiền chi để mua sắm xây dựng tscđ và các tài sản dài hạn khác</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -3719,7 +4617,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>receipts from loan repayments sale of other entities debt instruments</t>
+          <t>receipts from disposal of fixed assets and other long term assets</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3729,7 +4627,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>tiền thu hồi cho vay bán lại các công cụ nợ của đơn vị khác</t>
+          <t>tiền thu từ thanh lý nhượng bán tscđ và các tài sản dài hạn khác</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -3739,7 +4642,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>payments for investment in other entities</t>
+          <t>loans purchases of other entities debt instruments</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3749,7 +4652,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>tiền chi đầu tư góp vốn vào đơn vị khác</t>
+          <t>tiền chi cho vay mua các công cụ nợ của đơn vị khác</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -3759,7 +4667,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>collections on investment in other entities</t>
+          <t>receipts from loan repayments sale of other entities debt instruments</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3769,7 +4677,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
+          <t>tiền thu hồi cho vay bán lại các công cụ nợ của đơn vị khác</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -3779,7 +4692,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>dividends interest and profit received</t>
+          <t>payments for investment in other entities</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3789,7 +4702,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>tiền thu lãi cho vay cổ tức và lợi nhuận được chia</t>
+          <t>tiền chi đầu tư góp vốn vào đơn vị khác</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -3799,15 +4717,20 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
+          <t>collections on investment in other entities</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
           <t>net cash flows from investing activities</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>net cash flows during the period</t>
-        </is>
-      </c>
       <c r="D185" t="inlineStr">
+        <is>
+          <t>tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
         <is>
           <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
@@ -3819,17 +4742,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>iii cash flows from financing activities</t>
+          <t>dividends interest and profit received</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>iii cash flows from financing activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+          <t>tiền thu lãi cho vay cổ tức và lợi nhuận được chia</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -3839,17 +4767,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>receipts from equity issue and owner s capital contribution</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>tiền thu từ phát hành cổ phiếu nhận vốn góp của chủ sở hữu</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -3859,17 +4792,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>payment for share repurchases</t>
+          <t>iii cash flows from financing activities</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>iii cash flows from financing activities</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>tiền chi trả vốn góp cho các chủ sở hữu mua cổ phiếu quỹ</t>
+          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3879,7 +4817,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>short term and long term borrowings</t>
+          <t>receipts from equity issue and owner s capital contribution</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3889,7 +4827,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>tiền vay gốc</t>
+          <t>tiền thu từ phát hành cổ phiếu nhận vốn góp của chủ sở hữu</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3899,17 +4842,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>borrowings to settlement assistance fund</t>
+          <t>payment for share repurchases</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>short term and long term borrowings</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>tiền vay quỹ hỗ trợ thanh toán</t>
+          <t>tiền chi trả vốn góp cho các chủ sở hữu mua cổ phiếu quỹ</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3919,17 +4867,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>other borrowings</t>
+          <t>short term and long term borrowings</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>short term and long term borrowings</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>tiền vay khác</t>
+          <t>tiền vay gốc</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3939,17 +4892,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>principal repayments</t>
+          <t>borrowings to settlement assistance fund</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>short term and long term borrowings</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>tiền chi trả nợ gốc vay</t>
+          <t>tiền vay quỹ hỗ trợ thanh toán</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>tiền vay gốc</t>
         </is>
       </c>
     </row>
@@ -3959,17 +4917,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>principal repayments to settlement assistance fund</t>
+          <t>other borrowings</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>principal repayments</t>
+          <t>short term and long term borrowings</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>tiền chi trả gốc vay quỹ hỗ trợ thanh toán</t>
+          <t>tiền vay khác</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>tiền vay gốc</t>
         </is>
       </c>
     </row>
@@ -3979,17 +4942,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>principal repayments to financial assets</t>
+          <t>principal repayments</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>principal repayments</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>tiền chi trả nợ gốc vay tài sản tài chính</t>
+          <t>tiền chi trả nợ gốc vay</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3999,7 +4967,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>other principal repayments</t>
+          <t>principal repayments to settlement assistance fund</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4009,7 +4977,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>tiền chi trả gốc nợ vay khác</t>
+          <t>tiền chi trả gốc vay quỹ hỗ trợ thanh toán</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>tiền chi trả nợ gốc vay</t>
         </is>
       </c>
     </row>
@@ -4019,17 +4992,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>payments to settle finance leases</t>
+          <t>principal repayments to financial assets</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>principal repayments</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>tiền chi trả nợ thuê tài chính</t>
+          <t>tiền chi trả nợ gốc vay tài sản tài chính</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>tiền chi trả nợ gốc vay</t>
         </is>
       </c>
     </row>
@@ -4039,17 +5017,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>dividends paid profits distributed to owners</t>
+          <t>other principal repayments</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>principal repayments</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>cổ tức lợi nhuận đã trả cho chủ sở hữu</t>
+          <t>tiền chi trả gốc nợ vay khác</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>tiền chi trả nợ gốc vay</t>
         </is>
       </c>
     </row>
@@ -4059,15 +5042,20 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
+          <t>payments to settle finance leases</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
           <t>net cash flows from financing activities</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>net cash flows during the period</t>
-        </is>
-      </c>
       <c r="D198" t="inlineStr">
+        <is>
+          <t>tiền chi trả nợ thuê tài chính</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
@@ -4079,17 +5067,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>net cash flows during the period</t>
+          <t>dividends paid profits distributed to owners</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>tăng giảm tiền thuần trong kỳ</t>
+          <t>cổ tức lợi nhuận đã trả cho chủ sở hữu</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -4099,17 +5092,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at beginning of the period</t>
+          <t>other receipts from financing activities</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>tiền và các khoản tương đương tiền tồn đầu kỳ</t>
+          <t>tiền thu khác từ hoạt động tài chính</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -4119,17 +5117,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>cash at bank</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at beginning of the period</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>tiền gửi ngân hàng đầu kỳ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4139,17 +5142,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>cash at bank for securities company activities</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at beginning of the period</t>
+          <t>cash and cash equivalents at end of the period</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>tiền gửi ngân hàng cho hoạt động ctck</t>
+          <t>tăng giảm tiền thuần trong kỳ</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ 70 50 60</t>
         </is>
       </c>
     </row>
@@ -4159,17 +5167,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>cash equivalents</t>
+          <t>cash and cash equivalents at beginning of the period</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at beginning of the period</t>
+          <t>cash and cash equivalents at end of the period</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>các khoản tương đương tiền</t>
+          <t>tiền và các khoản tương đương tiền tồn đầu kỳ</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ 70 50 60</t>
         </is>
       </c>
     </row>
@@ -4179,7 +5192,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>exchange difference due to re valuation of beginning balances</t>
+          <t>cash at bank</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4189,7 +5202,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ đầu kỳ</t>
+          <t>tiền gửi ngân hàng đầu kỳ</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền tồn đầu kỳ</t>
         </is>
       </c>
     </row>
@@ -4199,7 +5217,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>exchange difference due to re valuation of ending balances</t>
+          <t>cash at bank for securities company activities</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4209,7 +5227,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+          <t>tiền gửi ngân hàng cho hoạt động ctck</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền tồn đầu kỳ</t>
         </is>
       </c>
     </row>
@@ -4219,17 +5242,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>cash equivalents</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>cash and cash equivalents at beginning of the period</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>tiền và các khoản tương đương tiền cuối kỳ 70 50 60</t>
+          <t>các khoản tương đương tiền</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền tồn đầu kỳ</t>
         </is>
       </c>
     </row>
@@ -4239,17 +5267,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>cash at bank</t>
+          <t>exchange difference due to re valuation of beginning balances</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>cash and cash equivalents at beginning of the period</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>tiền gửi ngân hàng cuối kỳ</t>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ đầu kỳ</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền tồn đầu kỳ</t>
         </is>
       </c>
     </row>
@@ -4259,17 +5292,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>cash at bank for securities company activities</t>
+          <t>exchange difference due to re valuation of ending balances</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>cash and cash equivalents at beginning of the period</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>tiền gửi ngân hàng cho hoạt động ctck</t>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền tồn đầu kỳ</t>
         </is>
       </c>
     </row>
@@ -4279,7 +5317,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>cash equivalents</t>
+          <t>cash and cash equivalents at end of the period</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4289,7 +5327,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>các khoản tương đương tiền</t>
+          <t>tiền và các khoản tương đương tiền cuối kỳ 70 50 60</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ 70 50 60</t>
         </is>
       </c>
     </row>
@@ -4299,7 +5342,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>exchange difference due to re valuation of ending balances</t>
+          <t>cash at bank</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4309,7 +5352,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ cuối kỳ</t>
+          <t>tiền gửi ngân hàng cuối kỳ</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ 70 50 60</t>
         </is>
       </c>
     </row>
@@ -4317,11 +5365,24 @@
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>cash at bank for securities company activities</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>cash and cash equivalents at end of the period</t>
+        </is>
+      </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>tiền gửi ngân hàng cho hoạt động ctck</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ 70 50 60</t>
         </is>
       </c>
     </row>
@@ -4329,11 +5390,24 @@
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>cash equivalents</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>cash and cash equivalents at end of the period</t>
+        </is>
+      </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền hoạt động môi giới ủy thác của khách hàng</t>
+          <t>các khoản tương đương tiền</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ 70 50 60</t>
         </is>
       </c>
     </row>
@@ -4341,11 +5415,24 @@
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>exchange difference due to re valuation of ending balances</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>cash and cash equivalents at end of the period</t>
+        </is>
+      </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>tiền thu bán chứng khoán môi giới cho khách hàng</t>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ cuối kỳ</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ 70 50 60</t>
         </is>
       </c>
     </row>
@@ -4357,7 +5444,12 @@
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>tiền chi mua chứng khoán môi giới cho khách hàng</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4369,7 +5461,12 @@
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>tiền thu bán chứng khoán ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4381,7 +5478,12 @@
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>tiền cho bán chứng khoán ủy thác của khách hàng</t>
+          <t>tiền thu bán chứng khoán môi giới cho khách hàng</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4393,7 +5495,12 @@
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>thu tiền từ tài khoản vãng lai của khách hàng</t>
+          <t>tiền chi mua chứng khoán môi giới cho khách hàng</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4405,7 +5512,12 @@
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>chi tiền từ tài khoản vãng lai của khách hàng</t>
+          <t>tiền thu bán chứng khoán ủy thác của khách hàng</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4417,7 +5529,12 @@
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>thu vay quỹ hỗ trợ thanh toán</t>
+          <t>tiền cho bán chứng khoán ủy thác của khách hàng</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4429,7 +5546,12 @@
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>chi trả vay quỹ hỗ trợ thanh toán</t>
+          <t>thu tiền từ tài khoản vãng lai của khách hàng</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4441,7 +5563,12 @@
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>nhận tiền gửi để thanh toán giao dịch chứng khoán của khách hàng</t>
+          <t>chi tiền từ tài khoản vãng lai của khách hàng</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4453,7 +5580,12 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>nhận tiền gửi của nhà đầu tư cho hoạt động ủy thác đầu tư của khách hàng</t>
+          <t>thu vay quỹ hỗ trợ thanh toán</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4465,7 +5597,12 @@
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>chi trả phí lưu ký chứng khoán của khách hàng</t>
+          <t>chi trả vay quỹ hỗ trợ thanh toán</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4477,7 +5614,12 @@
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>thu lỗi giao dịch chứng khoán</t>
+          <t>nhận tiền gửi để thanh toán giao dịch chứng khoán của khách hàng</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4489,7 +5631,12 @@
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>chi lỗi giao dịch chứng khoán</t>
+          <t>nhận tiền gửi của nhà đầu tư cho hoạt động ủy thác đầu tư của khách hàng</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4501,7 +5648,12 @@
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>tiền thu của tổ chức phát hành chứng khoán</t>
+          <t>chi trả phí lưu ký chứng khoán của khách hàng</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4513,7 +5665,12 @@
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>tiền chi trả tổ chức phát hành chứng khoán</t>
+          <t>thu lỗi giao dịch chứng khoán</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4523,7 +5680,16 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>chi lỗi giao dịch chứng khoán</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -4533,6 +5699,11 @@
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
+          <t>tiền thu của tổ chức phát hành chứng khoán</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
           <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
@@ -4545,7 +5716,12 @@
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
+          <t>tiền chi trả tổ chức phát hành chứng khoán</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4553,15 +5729,12 @@
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>cash at bank</t>
-        </is>
-      </c>
+      <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>tiền gửi ngân hàng đầu kỳ</t>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4573,7 +5746,12 @@
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>tiền gửi của nhà đầu tư về giao dịch chứng khoán theo phương thức ctck quản lý</t>
+          <t>tăng giảm tiền thuần trong kỳ</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4585,7 +5763,12 @@
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>trong đó có kỳ hạn</t>
+          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4593,11 +5776,20 @@
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" t="inlineStr"/>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>cash at bank</t>
+        </is>
+      </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>tiền gửi của nhà đầu tư về giao dịch chứng khoán theo phương thức ngân hàng thương mại quản lý</t>
+          <t>tiền gửi ngân hàng đầu kỳ</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4609,7 +5801,12 @@
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>tiền gửi bù trừ và thanh toán giao dịch chứng khoán</t>
+          <t>tiền gửi của nhà đầu tư về giao dịch chứng khoán theo phương thức ctck quản lý</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4621,7 +5818,12 @@
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>tiền gửi tổng hợp giao dịch chứng khoán cho khách hàng</t>
+          <t>trong đó có kỳ hạn</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4633,7 +5835,12 @@
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>tiền gửi của tổ chức phát hành</t>
+          <t>tiền gửi của nhà đầu tư về giao dịch chứng khoán theo phương thức ngân hàng thương mại quản lý</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4641,15 +5848,16 @@
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>cash equivalents</t>
-        </is>
-      </c>
+      <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>các khoản tương đương tiền</t>
+          <t>tiền gửi bù trừ và thanh toán giao dịch chứng khoán</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4657,15 +5865,16 @@
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>exchange difference due to re valuation of ending balances</t>
-        </is>
-      </c>
+      <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+          <t>tiền gửi tổng hợp giao dịch chứng khoán cho khách hàng</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4677,7 +5886,12 @@
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng 40 20 30</t>
+          <t>tiền gửi của tổ chức phát hành</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4687,13 +5901,221 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>cash at bank</t>
+          <t>cash equivalents</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
+          <t>các khoản tương đương tiền</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>exchange difference due to re valuation of ending balances</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng 40 20 30</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>cash at bank</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
           <t>tiền gửi ngân hàng cuối kỳ</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng 40 20 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>tiền gửi của nhà đầu tư về giao dịch chứng khoán theo phương thức ctck quản lý</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng 40 20 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>trong đó có kỳ hạn</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng 40 20 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>tiền gửi của nhà đầu tư về giao dịch chứng khoán theo phương thức ngân hàng thương mại quản lý</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng 40 20 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>tiền gửi tổng hợp giao dịch chứng khoán cho khách hàng</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng 40 20 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>tiền gửi bù trừ và thanh toán giao dịch chứng khoán</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng 40 20 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>tiền gửi của tổ chức phát hành</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng 40 20 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>cash equivalents</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>các khoản tương đương tiền</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng 40 20 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>exchange difference due to re valuation of ending balances</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng 40 20 30</t>
         </is>
       </c>
     </row>

--- a/functions/schema/LC_CashFlow Direct_all_accounts.xlsx
+++ b/functions/schema/LC_CashFlow Direct_all_accounts.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>premiums and commissions received</t>
+          <t>cash receipts from sale of goods provision of services and other revenue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -489,12 +489,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tiền thu phí và hoa hồng</t>
+          <t>tiê n thu tư ba n ha ng cung câ p di ch vu va doanh thu kha c</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>receipts from premium and commission payables</t>
+          <t>cash paid to suppliers for goods and services</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -514,12 +514,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>tiê n thu từ các khoản nợ phí và hoa hồng</t>
+          <t>tiê n chi tra cho ngươ i cung câ p ha ng hoa va di ch vu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>receipts from expense reductions</t>
+          <t>cash paid to employees</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,12 +539,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>tiê n thu từ các khoản thu được giảm chi</t>
+          <t>tiê n chi tra cho ngươ i lao đô ng</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>proceeds from other operating activities</t>
+          <t>interest paid</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -564,12 +564,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>tiê n thu từ các hoạt động kinh doanh khác</t>
+          <t>tiê n chi tra la i vay</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>payments for insurance claims</t>
+          <t>corporate income tax paid</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>trả tiền bồi thường bảo hiểm</t>
+          <t>tiê n chi nô p thuê thu nhâ p doanh nghiê p</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>payments for commissions and other insurance expenses</t>
+          <t>other receipts from operating activities</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>trả tiền hoa hồng và các khoản nợ khác của kinh doanh bh</t>
+          <t>tiê n thu kha c tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>payments to suppliers</t>
+          <t>other payments for operating activities</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>trả tiền cho người bán người cung cấp dịch vụ</t>
+          <t>tiê n chi kha c cho hoa t đô ng kinh doanh</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -654,22 +654,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>payments to employees</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>trả tiền cho cán bộ công nhân viên</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -679,22 +679,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>taxes and other obligations paid to the state authorities</t>
+          <t>cash flows from investing activities</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>cash flows from investing activities</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>trả tiền nộp thuế và các khoản nợ nhà nước</t>
+          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -704,22 +704,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>payments for other liabilities</t>
+          <t>payment for fixed assets constructions and other long term assets</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>trả tiền cho các khoản nợ khác</t>
+          <t>tiê n chi đê mua să m xây dư ng tscđ va ca c ta i sa n da i ha n kha c</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>advances to employees and suppliers</t>
+          <t>receipts from disposal of fixed assets and other long term assets</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>tiền tạm ứng cho cbcnv và ứng trước cho người bán</t>
+          <t>tiê n thu tư thanh ly nhươ ng ba n tscđ va ca c ta i sa n da i ha n kha c</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -754,22 +754,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>other receipts from operating activities</t>
+          <t>loans purchases of other entities debt instruments</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>tiền thu khác từ hoạt động kinh doanh</t>
+          <t>tiền chi cho vay mua các công cụ nợ của đơn vị khác</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -779,22 +779,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>other payments for operating activities</t>
+          <t>receipts from loan repayments sale of other entities debt instruments</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>tiền chi khác từ hoạt động kinh doanh</t>
+          <t>tiê n thu hô i cho vay ba n la i ca c công cu nơ cu a đơn vi kha c</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -804,22 +804,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>payments for investment in other entities</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>tiê n chi đâ u tư go p vô n va o đơn vi kha c</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hđkd</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -829,22 +829,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cash flows from investing activities</t>
+          <t>collections on investment in other entities</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>cash flows from investing activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
+          <t>tiê n thu hô i đâ u tư go p vô n va o đơn vi kha c</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>proceeds from investments in other entities</t>
+          <t>dividends interest and profit received</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>tiền thu từ các khoản đầu tư vào đơn vị khác</t>
+          <t>tiê n thu la i cho vay cô tư c va lơ i nhuâ n đươ c chia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>proceeds from other investments</t>
+          <t>other receipts from investing activities</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>tiền thu từ lãi các khoản đầu tư khác</t>
+          <t>tiền thu khác từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>proceeds from disposals of fixed assets</t>
+          <t>other payments for investing activities</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>tiền thu do bán tài sản cố định</t>
+          <t>tiền chi khác cho hoạt động đầu tư</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
     </row>
@@ -929,22 +929,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>investments in other entities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -954,22 +954,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>purchase of fixed assets</t>
+          <t>cash flows from financing activities</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>cash flows from financing activities</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>tiền mua tài sản cố định</t>
+          <t>lưu chuyển tiền từ hoạt động tài chính</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -979,22 +979,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>other receipts from investing activities</t>
+          <t>receipts from equity issue and owner s capital contribution</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>tiền thu khác từ hoạt động đầu tư</t>
+          <t>tiê n thu tư pha t ha nh cô phiê u nhâ n vô n go p cu a chu sơ hư u</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>other payments for investing activities</t>
+          <t>payment for share repurchases</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>tiền chi khác từ hoạt động đầu tư</t>
+          <t>tiê n chi tra vô n go p cho ca c chu sơ hư u mua la i cô phiê u cu a doanh nghiê p đa pha t ha nh</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>proceeds from borrowings</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>tiền thu từ đi vay</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -1054,22 +1054,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cash flows from financing activities</t>
+          <t>principal repayments</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>cash flows from financing activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+          <t>tiê n chi tra nơ gô c vay</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>receipts from equity issue and owner s capital contribution</t>
+          <t>repayment of financial leases</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>tiền thu từ phát hành cổ phiếu nhận vốn góp của chủ sở hữu tiền thu do các chủ sở hữu góp vốn</t>
+          <t>tiền trả nợ gốc thuê tài chính</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>payment for share repurchases</t>
+          <t>dividends paid profits distributed to owners</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1114,12 +1114,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>tiền chi trả vốn góp cho các chủ sở hữu mua lại cổ phiếu của doanh nghiệp đã phát hành</t>
+          <t>cô tư c lơ i nhuâ n đa tra cho chu sơ hư u</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>short term and long term borrowings</t>
+          <t>other receipts from financing activities</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1139,12 +1139,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>tiền vay ngắn hạn dài hạn nhận được tiền thu do di vay</t>
+          <t>tiền thu khác từ hoạt động tài chính</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>receipts from interest income on deposits</t>
+          <t>other payments for financing activities</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>tiền thu từ lãi tiền gửi</t>
+          <t>tiền chi khác cho hoạt động tài chính</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
     </row>
@@ -1179,22 +1179,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>principal payments</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>tiền chi trả nợ gốc vay</t>
+          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -1204,22 +1204,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>payments to settle finance lease</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>cash and cash equivalents at end of the period</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>tiền chi trả nợ thuê tài chính</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -1229,22 +1229,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>dividends paid profits distributed to owners</t>
+          <t>cash and cash equivalents at beginning of the period</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>cash and cash equivalents at end of the period</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>cổ tức lợi nhuận đã trả cho chủ sở hữu tiền lãi đã trả cho các nhà đầu tư vào doanh nghiệp</t>
+          <t>tiền và tương đương tiền đầu kỳ</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -1254,22 +1254,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>other receipts from financing activities</t>
+          <t>exchange difference due to re valuation of ending balances</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>cash and cash equivalents at end of the period</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>tiền thu khác từ hoạt dộng tài chính</t>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -1279,22 +1279,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>other payments for financing activities</t>
+          <t>cash and cash equivalents at end of the period</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>cash and cash equivalents at end of the period</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>tiền chi khác từ hoạt động tài chính</t>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -1304,22 +1304,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>premiums and commissions received</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tiền thu phí và hoa hồng</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1329,22 +1329,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>net cash flows during the period</t>
+          <t>receipts from premium and commission payables</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>net cash flows during the period</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần trong kỳ</t>
+          <t>tiê n thu từ các khoản nợ phí và hoa hồng</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần trong kỳ</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1354,22 +1354,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at beginning of the period</t>
+          <t>receipts from expense reductions</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at beginning of the period</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền đầu kỳ</t>
+          <t>tiê n thu từ các khoản thu được giảm chi</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền đầu kỳ</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1379,22 +1379,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>exchange difference due to re valuation of ending balances</t>
+          <t>proceeds from other operating activities</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>exchange difference due to re valuation of ending balances</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+          <t>tiê n thu từ các hoạt động kinh doanh khác</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1404,22 +1404,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>payments for insurance claims</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền cuối kỳ</t>
+          <t>trả tiền bồi thường bảo hiểm</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền cuối kỳ</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>receipts from interest and similar income</t>
+          <t>payments for commissions and other insurance expenses</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>thu nhập lãi và các khoản thu nhập tương tự nhận được</t>
+          <t>trả tiền hoa hồng và các khoản nợ khác của kinh doanh bh</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1454,22 +1454,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>payments for interest and similar expenses</t>
+          <t>payments to suppliers</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>chi phí lãi và các chi phí tương tự đã trả</t>
+          <t>trả tiền cho người bán người cung cấp dịch vụ</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1479,22 +1479,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>receipts from fee and commission income</t>
+          <t>payments to employees</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>thu nhập từ hoạt động dịch vụ nhận được</t>
+          <t>trả tiền cho cán bộ công nhân viên</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1504,22 +1504,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>net cash inflow from trading activities in foreign currencies gold and securities</t>
+          <t>taxes and other obligations paid to the state authorities</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4 chênh lệch số tiền thực thu thực chi từ hoạt động kinh doanh ngoại tệ vàng bạc chứng khoán</t>
+          <t>trả tiền nộp thuế và các khoản nợ nhà nước</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1529,22 +1529,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>receipts from other income</t>
+          <t>payments for other liabilities</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>thu nhập khác</t>
+          <t>trả tiền cho các khoản nợ khác</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1554,22 +1554,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>receipts from collection of debts written off debts accounted for by reserves</t>
+          <t>advances to employees and suppliers</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>tiền thu các khoản nợ đã được xử lý xóa bù đắp bằng nguồn rủi ro</t>
+          <t>tiền tạm ứng cho cbcnv và ứng trước cho người bán</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1579,22 +1579,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>payments for staff costs and operating expenses</t>
+          <t>other receipts from operating activities</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>tiền chi trả cho nhân viên và hoạt động quản lý công vụ</t>
+          <t>tiền thu khác từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1604,22 +1604,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>corporate income tax paid for the period</t>
+          <t>other payments for operating activities</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>tiền thuế thu nhập thực nộp trong kỳ</t>
+          <t>tiền chi khác từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hđkd</t>
         </is>
       </c>
     </row>
@@ -1654,22 +1654,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>changes in operating assets</t>
+          <t>proceeds from investments in other entities</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>changes in operating assets</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>những thay đổi về tài sản hoạt động</t>
+          <t>tiền thu từ các khoản đầu tư vào đơn vị khác</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>những thay đổi về tài sản hoạt động</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -1679,22 +1679,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>increase decrease in placements with and loans to other credit institutions</t>
+          <t>proceeds from other investments</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản tiền vàng gửi và cho vay các tctd khác</t>
+          <t>tiền thu từ lãi các khoản đầu tư khác</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -1704,22 +1704,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>increase decrease in trading securities and investment securities</t>
+          <t>proceeds from disposals of fixed assets</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản về kinh doanh chứng khoán</t>
+          <t>tiền thu do bán tài sản cố định</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -1729,22 +1729,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>increase decrease in derivatives and other financial assets</t>
+          <t>investments in other entities</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>tăng giảm các công cụ tài chính phái sinh và các công cụ tài chính khác</t>
+          <t>tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -1754,22 +1754,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>increase decrease in loans and advances to customers</t>
+          <t>purchase of fixed assets</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản cho vay khách hàng</t>
+          <t>tiền mua tài sản cố định</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -1779,22 +1779,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>decrease increase in provisions for damages</t>
+          <t>other receipts from investing activities</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>giảm nguồn dự phòng để bù đắp tổn thất các khoản</t>
+          <t>tiền thu khác từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -1804,22 +1804,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>increase decrease in other operating assets</t>
+          <t>other payments for investing activities</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>tăng giảm khác về tài sản hoạt động</t>
+          <t>tiền chi khác từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -1829,22 +1829,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>changes in operating liabilities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>changes in operating liabilities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>những thay đổi về công nợ hoạt động</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>những thay đổi về công nợ hoạt động</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -1854,22 +1854,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>increase decrease in due to the government and borrowings from state bank of vietnam</t>
+          <t>receipts from equity issue and owner s capital contribution</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản nợ chính phủ và nhnn</t>
+          <t>tiền thu từ phát hành cổ phiếu nhận vốn góp của chủ sở hữu tiền thu do các chủ sở hữu góp vốn</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -1879,22 +1879,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>increase decrease in placements and borrowings from other credit institutions</t>
+          <t>payment for share repurchases</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản tiền gửi tiền vay các tổ chức tín dụng</t>
+          <t>tiền chi trả vốn góp cho các chủ sở hữu mua lại cổ phiếu của doanh nghiệp đã phát hành</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -1904,22 +1904,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>increase decrease in deposit from customers including the state treasury</t>
+          <t>short term and long term borrowings</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>tăng giảm tiền gửi của khách hàng bao gồm cả kho bạc nhà nước</t>
+          <t>tiền vay ngắn hạn dài hạn nhận được tiền thu do di vay</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -1929,22 +1929,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>increase decrease in valuable papers issued excluding valuable papers categorized under financing activities</t>
+          <t>receipts from interest income on deposits</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>tăng giảm phát hành giấy tờ có giá ngoại trừ giấy tờ có giá phát hành được tình vào hoạt động tài chính</t>
+          <t>tiền thu từ lãi tiền gửi</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -1954,22 +1954,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>increase decrease in funds received from government institutions investments on behalf of investors and syndicated loans of the bank s risks</t>
+          <t>principal payments</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>tăng giảm vốn tài trợ ủy thác đầu tư cho vay mà tctd chịu rủi ro</t>
+          <t>tiền chi trả nợ gốc vay</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -1979,22 +1979,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>increase decrease in derivatives and other financial liabilities</t>
+          <t>payments to settle finance lease</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>tăng giảm các công cụ tài chính phái sinh và các khoản nợ tài chính khác</t>
+          <t>tiền chi trả nợ thuê tài chính</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -2004,22 +2004,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>increase decrease in other operating liabilities</t>
+          <t>dividends paid profits distributed to owners</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>tăng giảm khác về công nợ hoạt động</t>
+          <t>cổ tức lợi nhuận đã trả cho chủ sở hữu tiền lãi đã trả cho các nhà đầu tư vào doanh nghiệp</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -2029,22 +2029,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>payments from reserves</t>
+          <t>other receipts from financing activities</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>chi từ các quỹ của tctd</t>
+          <t>tiền thu khác từ hoạt dộng tài chính</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -2054,22 +2054,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>other payments for financing activities</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>net cash flows during the period</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>tiền chi khác từ hoạt động tài chính</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>iv lưu chuyển tiền thuần trong kỳ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -2079,22 +2079,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>purchase of fixed assets</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>mua sắm tài sản cố định</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -2104,22 +2104,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>receipts from disposal of fixed assets</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>tiền thu từ thanh lý nhượng bán tscđ</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -2129,22 +2129,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>payments for disposal of fixed assets</t>
+          <t>cash and cash equivalents at beginning of the period</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>cash and cash equivalents at beginning of the period</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>tiền chi từ thanh lý nhượng bán tscđ</t>
+          <t>tiền và tương đương tiền đầu kỳ</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>tiền và tương đương tiền đầu kỳ</t>
         </is>
       </c>
     </row>
@@ -2154,22 +2154,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>purchase of investment properties</t>
+          <t>exchange difference due to re valuation of ending balances</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>exchange difference due to re valuation of ending balances</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>mua sắm bất động sản đầu tư</t>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
         </is>
       </c>
     </row>
@@ -2179,22 +2179,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>receipts from disposal of investment properties</t>
+          <t>receipts from interest and similar income</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>tiền thu từ bán thanh lý bất động sản đầu tư</t>
+          <t>thu nhập lãi và các khoản thu nhập tương tự nhận được</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -2204,22 +2204,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>payments for disposal of investment properties</t>
+          <t>payments for interest and similar expenses</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>tiền chi ra do bán thanh lý bất động sản đầu tư</t>
+          <t>chi phí lãi và các chi phí tương tự đã trả</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>payments for investment in other entities</t>
+          <t>receipts from fee and commission income</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>tiền chi đầu tư góp vốn vào các đơn vị khác mua công ty con góp vốn liên doanh liên kết đầu tư dài hạn khác</t>
+          <t>thu nhập từ hoạt động dịch vụ nhận được</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -2254,22 +2254,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>collections on investment in other entities</t>
+          <t>net cash inflow from trading activities in foreign currencies gold and securities</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>tiền thu đầu tư góp vốn vào các đơn vị khác bán thanh lý công ty con góp vốn liên doanh liên kết đầu tư dài hạn khác</t>
+          <t>4 chênh lệch số tiền thực thu thực chi từ hoạt động kinh doanh ngoại tệ vàng bạc chứng khoán</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -2279,22 +2279,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>dividends and profit received</t>
+          <t>receipts from other income</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>tiền thu cổ tức và lợi nhuận được chia từ các khoản đầu tư góp vốn dài hạn</t>
+          <t>thu nhập khác</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2304,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>receipts from collection of debts written off debts accounted for by reserves</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>net cash flows during the period</t>
+          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>tiền thu các khoản nợ đã được xử lý xóa bù đắp bằng nguồn rủi ro</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>iv lưu chuyển tiền thuần trong kỳ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>receipts from equity issue and owner s capital contribution</t>
+          <t>payments for staff costs and operating expenses</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>tăng v ốn cổ phần từ góp vốn và hoặc phát hành cổ phiếu</t>
+          <t>tiền chi trả cho nhân viên và hoạt động quản lý công vụ</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -2354,22 +2354,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>receipts from issue of valuable papers qualified as owner s capital and other long term borrowings</t>
+          <t>corporate income tax paid for the period</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>tiền thu từ phát hành giấy tờ có giá dài hạn có đủ điều kiện tính vào vốn tự có và các khoản vốn vay dài hạn khác</t>
+          <t>tiền thuế thu nhập thực nộp trong kỳ</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -2379,22 +2379,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>payments for issue of valuable papers qualified as owner s capital and other long term borrowings</t>
+          <t>cash flow from operating activities before changes in operating assets and liabilities</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>tiền chi thanh toán giấy tờ có giá dài hạn có đủ điều kiện tính vào vốn tự có và các khoản vốn vay dài hạn khác</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh trước những thay đổi về tài sản và vốn lưu động</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2404,22 +2404,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>dividends paid profits distributed to owners</t>
+          <t>changes in operating assets</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>changes in operating assets</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>cổ tức trả cho cổ đông lợi nhuận đã chia</t>
+          <t>những thay đổi về tài sản hoạt động</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>những thay đổi về tài sản hoạt động</t>
         </is>
       </c>
     </row>
@@ -2429,22 +2429,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>payments for purchase of treasury shares</t>
+          <t>increase decrease in placements with and loans to other credit institutions</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>tiền chi ra mua cổ phiếu quỹ</t>
+          <t>tăng giảm các khoản tiền vàng gửi và cho vay các tctd khác</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2454,22 +2454,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>receipts from disposal of treasury shares</t>
+          <t>increase decrease in trading securities and investment securities</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>tiền thu được do bán cổ phiếu quỹ</t>
+          <t>tăng giảm các khoản về kinh doanh chứng khoán</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2479,22 +2479,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>increase decrease in derivatives and other financial assets</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>net cash flows during the period</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tăng giảm các công cụ tài chính phái sinh và các công cụ tài chính khác</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>iv lưu chuyển tiền thuần trong kỳ</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2504,22 +2504,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>net cash flows during the period</t>
+          <t>increase decrease in loans and advances to customers</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>iv lưu chuyển tiền thuần trong kỳ</t>
+          <t>tăng giảm các khoản cho vay khách hàng</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2529,22 +2529,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at beginning of the period</t>
+          <t>decrease increase in provisions for damages</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>v tiền và các khoản tương đương tiền tại thời điểm đầu kỳ</t>
+          <t>giảm nguồn dự phòng để bù đắp tổn thất các khoản</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2554,22 +2554,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>exchange difference due to re valuation of ending balances</t>
+          <t>increase decrease in other operating assets</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vi điều chỉnh ảnh hưởng của thay đổi tỷ giá</t>
+          <t>tăng giảm khác về tài sản hoạt động</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2579,22 +2579,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>changes in operating liabilities</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at end of the period</t>
+          <t>changes in operating liabilities</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
+          <t>những thay đổi về công nợ hoạt động</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
+          <t>những thay đổi về công nợ hoạt động</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>cash receipts from sale of goods provision of services and other revenue</t>
+          <t>increase decrease in due to the government and borrowings from state bank of vietnam</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2614,12 +2614,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>tiê n thu tư ba n ha ng cung câ p di ch vu va doanh thu kha c</t>
+          <t>tăng giảm các khoản nợ chính phủ và nhnn</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>cash paid to suppliers for goods and services</t>
+          <t>increase decrease in placements and borrowings from other credit institutions</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>tiê n chi tra cho ngươ i cung câ p ha ng hoa va di ch vu</t>
+          <t>tăng giảm các khoản tiền gửi tiền vay các tổ chức tín dụng</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cash paid to employees</t>
+          <t>increase decrease in deposit from customers including the state treasury</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>tiê n chi tra cho ngươ i lao đô ng</t>
+          <t>tăng giảm tiền gửi của khách hàng bao gồm cả kho bạc nhà nước</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>interest paid</t>
+          <t>increase decrease in valuable papers issued excluding valuable papers categorized under financing activities</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>tiê n chi tra la i vay</t>
+          <t>tăng giảm phát hành giấy tờ có giá ngoại trừ giấy tờ có giá phát hành được tình vào hoạt động tài chính</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>corporate income tax paid</t>
+          <t>increase decrease in funds received from government institutions investments on behalf of investors and syndicated loans of the bank s risks</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>tiê n chi nô p thuê thu nhâ p doanh nghiê p</t>
+          <t>tăng giảm vốn tài trợ ủy thác đầu tư cho vay mà tctd chịu rủi ro</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>other receipts from operating activities</t>
+          <t>increase decrease in derivatives and other financial liabilities</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>tiê n thu kha c tư hoa t đô ng kinh doanh</t>
+          <t>tăng giảm các công cụ tài chính phái sinh và các khoản nợ tài chính khác</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>other payments for operating activities</t>
+          <t>increase decrease in other operating liabilities</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>tiê n chi kha c cho hoa t đô ng kinh doanh</t>
+          <t>tăng giảm khác về công nợ hoạt động</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2779,22 +2779,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>payments from reserves</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>net cash flows from operating activities</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>net cash flows during the period</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng kinh doanh</t>
+          <t>chi từ các quỹ của tctd</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần trong kỳ</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -2804,22 +2804,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>payment for fixed assets constructions and other long term assets</t>
+          <t>net cash flows from operating activities</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>tiê n chi đê mua să m xây dư ng tscđ va ca c ta i sa n da i ha n kha c</t>
+          <t>i lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+          <t>iv lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>receipts from disposal of fixed assets and other long term assets</t>
+          <t>purchase of fixed assets</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>tiê n thu tư thanh ly nhươ ng ba n tscđ va ca c ta i sa n da i ha n kha c</t>
+          <t>mua sắm tài sản cố định</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>loans purchases of other entities debt instruments</t>
+          <t>receipts from disposal of fixed assets</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2864,12 +2864,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>tiền chi cho vay mua các công cụ nợ của đơn vị khác</t>
+          <t>tiền thu từ thanh lý nhượng bán tscđ</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>receipts from loan repayments sale of other entities debt instruments</t>
+          <t>payments for disposal of fixed assets</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2889,12 +2889,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>tiê n thu hô i cho vay ba n la i ca c công cu nơ cu a đơn vi kha c</t>
+          <t>tiền chi từ thanh lý nhượng bán tscđ</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>payments for investment in other entities</t>
+          <t>purchase of investment properties</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2914,12 +2914,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>tiê n chi đâ u tư go p vô n va o đơn vi kha c</t>
+          <t>mua sắm bất động sản đầu tư</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>collections on investment in other entities</t>
+          <t>receipts from disposal of investment properties</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2939,12 +2939,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>tiê n thu hô i đâ u tư go p vô n va o đơn vi kha c</t>
+          <t>tiền thu từ bán thanh lý bất động sản đầu tư</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>dividends interest and profit received</t>
+          <t>payments for disposal of investment properties</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2964,12 +2964,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>tiê n thu la i cho vay cô tư c va lơ i nhuâ n đươ c chia</t>
+          <t>tiền chi ra do bán thanh lý bất động sản đầu tư</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>other receipts from investing activities</t>
+          <t>payments for investment in other entities</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2989,12 +2989,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>tiền thu khác từ hoạt động đầu tư</t>
+          <t>tiền chi đầu tư góp vốn vào các đơn vị khác mua công ty con góp vốn liên doanh liên kết đầu tư dài hạn khác</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>other payments for investing activities</t>
+          <t>collections on investment in other entities</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3014,12 +3014,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>tiền chi khác cho hoạt động đầu tư</t>
+          <t>tiền thu đầu tư góp vốn vào các đơn vị khác bán thanh lý công ty con góp vốn liên doanh liên kết đầu tư dài hạn khác</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -3029,22 +3029,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>dividends and profit received</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>net cash flows from investing activities</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>net cash flows during the period</t>
-        </is>
-      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng đâ u tư</t>
+          <t>tiền thu cổ tức và lợi nhuận được chia từ các khoản đầu tư góp vốn dài hạn</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần trong kỳ</t>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -3054,22 +3054,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>receipts from equity issue and owner s capital contribution</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>tiê n thu tư pha t ha nh cô phiê u nhâ n vô n go p cu a chu sơ hư u</t>
+          <t>ii lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
+          <t>iv lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>payment for share repurchases</t>
+          <t>receipts from equity issue and owner s capital contribution</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3089,12 +3089,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>tiê n chi tra vô n go p cho ca c chu sơ hư u mua la i cô phiê u cu a doanh nghiê p đa pha t ha nh</t>
+          <t>tăng v ốn cổ phần từ góp vốn và hoặc phát hành cổ phiếu</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>proceeds from borrowings</t>
+          <t>receipts from issue of valuable papers qualified as owner s capital and other long term borrowings</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3114,12 +3114,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>tiền thu từ đi vay</t>
+          <t>tiền thu từ phát hành giấy tờ có giá dài hạn có đủ điều kiện tính vào vốn tự có và các khoản vốn vay dài hạn khác</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>principal repayments</t>
+          <t>payments for issue of valuable papers qualified as owner s capital and other long term borrowings</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3139,12 +3139,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>tiê n chi tra nơ gô c vay</t>
+          <t>tiền chi thanh toán giấy tờ có giá dài hạn có đủ điều kiện tính vào vốn tự có và các khoản vốn vay dài hạn khác</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>repayment of financial leases</t>
+          <t>dividends paid profits distributed to owners</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3164,12 +3164,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>tiền trả nợ gốc thuê tài chính</t>
+          <t>cổ tức trả cho cổ đông lợi nhuận đã chia</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>dividends paid profits distributed to owners</t>
+          <t>payments for purchase of treasury shares</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3189,12 +3189,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>cô tư c lơ i nhuâ n đa tra cho chu sơ hư u</t>
+          <t>tiền chi ra mua cổ phiếu quỹ</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>other receipts from financing activities</t>
+          <t>receipts from disposal of treasury shares</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>tiền thu khác từ hoạt động tài chính</t>
+          <t>tiền thu được do bán cổ phiếu quỹ</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3229,22 +3229,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>other payments for financing activities</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>tiền chi khác cho hoạt động tài chính</t>
+          <t>iii lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
+          <t>iv lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>net cash flows during the period</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>net cash flows during the period</t>
+          <t>cash and cash equivalents at end of the period</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>lưu chuyê n tiê n thuâ n tư hoa t đô ng ta i chi nh</t>
+          <t>iv lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần trong kỳ</t>
+          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>net cash flows during the period</t>
+          <t>cash and cash equivalents at beginning of the period</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3289,12 +3289,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần trong kỳ</t>
+          <t>v tiền và các khoản tương đương tiền tại thời điểm đầu kỳ</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền cuối kỳ</t>
+          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>cash and cash equivalents at beginning of the period</t>
+          <t>exchange difference due to re valuation of ending balances</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền đầu kỳ</t>
+          <t>vi điều chỉnh ảnh hưởng của thay đổi tỷ giá</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền cuối kỳ</t>
+          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>exchange difference due to re valuation of ending balances</t>
+          <t>cash and cash equivalents at end of the period</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền cuối kỳ</t>
+          <t>tiền và các khoản tương đương tiền tại thời điểm cuối kỳ</t>
         </is>
       </c>
     </row>
